--- a/МетодНаименьшихКвадратов.xlsx
+++ b/МетодНаименьшихКвадратов.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boris\Documents\UNI\Вычмат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C30AB74-A522-4FB3-84CF-BD7642E90B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D57B67-01D1-47A7-89A8-E63F48F55826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4D1BA87B-7AFF-48E7-BA11-6B6D7E6F5795}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D1BA87B-7AFF-48E7-BA11-6B6D7E6F5795}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,54 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Метод наименьших квадратов</t>
+  </si>
+  <si>
+    <t>Матрица коэффициентов</t>
+  </si>
+  <si>
+    <t>Столбец свободных членов</t>
+  </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>Обратная матрица</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +89,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,8 +112,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,13 +145,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -99,14 +193,1052 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31103793550805287"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>y(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5539-40A2-BA0A-E447D9EC41FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4166666666666643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.083333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.083333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5539-40A2-BA0A-E447D9EC41FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1443174592"/>
+        <c:axId val="1443177088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1443174592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443177088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1443177088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443174592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>210371</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3361</xdr:rowOff>
+      <xdr:colOff>360339</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>189808</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180113" cy="181012"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -124,7 +1256,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="210371" y="914773"/>
+              <a:off x="360339" y="951808"/>
               <a:ext cx="180113" cy="181012"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -152,6 +1284,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -213,7 +1346,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="210371" y="914773"/>
+              <a:off x="360339" y="951808"/>
               <a:ext cx="180113" cy="181012"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -241,6 +1374,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -258,9 +1392,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>239058</xdr:colOff>
+      <xdr:colOff>389026</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>173317</xdr:rowOff>
+      <xdr:rowOff>169264</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151067" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -278,7 +1412,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="239058" y="537882"/>
+              <a:off x="389026" y="550264"/>
               <a:ext cx="151067" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -306,6 +1440,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -359,7 +1494,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="239058" y="537882"/>
+              <a:off x="389026" y="550264"/>
               <a:ext cx="151067" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -387,6 +1522,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -404,9 +1540,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>227105</xdr:colOff>
+      <xdr:colOff>377073</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:rowOff>166276</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151965" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -424,7 +1560,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="227105" y="717176"/>
+              <a:off x="377073" y="737776"/>
               <a:ext cx="151965" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -452,6 +1588,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -505,7 +1642,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="227105" y="717176"/>
+              <a:off x="377073" y="737776"/>
               <a:ext cx="151965" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -533,6 +1670,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -550,9 +1688,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>230093</xdr:colOff>
+      <xdr:colOff>309877</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:rowOff>190279</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="271164" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -570,7 +1708,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="230093" y="1090705"/>
+              <a:off x="309877" y="1142779"/>
               <a:ext cx="271164" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -598,6 +1736,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -676,7 +1815,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="230093" y="1090705"/>
+              <a:off x="309877" y="1142779"/>
               <a:ext cx="271164" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -704,6 +1843,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -762,8 +1902,8 @@
       <xdr:rowOff>60007</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="372090" cy="409920"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -805,6 +1945,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -834,7 +1975,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -883,6 +2024,586 @@
                 <a:t>∑</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>193037</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166791</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512CD1D3-4AEF-44A5-A8D5-7AE46BE08E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290245</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23655</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="349839" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DF92D9-EF20-44A4-9087-592C834AAEF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="290245" y="1357155"/>
+              <a:ext cx="349839" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="836967"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DF92D9-EF20-44A4-9087-592C834AAEF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="290245" y="1357155"/>
+              <a:ext cx="349839" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>24245</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6926</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813108" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B7CBDC-0D72-4DED-A09B-E8BB354A1251}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24245" y="1530926"/>
+              <a:ext cx="813108" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B7CBDC-0D72-4DED-A09B-E8BB354A1251}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24245" y="1530926"/>
+              <a:ext cx="813108" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑦_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)〗^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1190,153 +2911,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79B560-90B0-4B0E-9791-A98C016EE9DF}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="9" width="8.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6">
         <v>0.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>1.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>3.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>4.5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <f>SUM(B4:I4)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>6.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>17.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>20</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <f t="shared" ref="J5:J7" si="0">SUM(B5:I5)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <f>B4^2</f>
         <v>0.25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" ref="C6:I6" si="1">C4^2</f>
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>20.25</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <f>B4*B5</f>
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" ref="C7:I7" si="2">C4*C5</f>
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <f>$E$16*B4+$E$17</f>
+        <v>0.41666666666666252</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" ref="C8:I8" si="3">$E$16*C4+$E$17</f>
+        <v>2.7499999999999964</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="3"/>
+        <v>5.0833333333333304</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4166666666666643</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>12.083333333333332</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="3"/>
+        <v>14.416666666666664</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
+        <v>16.75</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>19.083333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>(B8-B5)^2</f>
+        <v>2.5069444444444575</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:I9" si="4">(C8-C5)^2</f>
+        <v>6.2500000000001776E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>1.1736111111111047</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0.84027777777777346</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>1.1736111111111085</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.17361111111110913</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.84027777777777346</v>
+      </c>
+      <c r="J9" s="1">
+        <f>SUM(B9:I9)</f>
+        <v>7.3333333333333286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>J6</f>
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <f>J4</f>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f>J7</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>J4</f>
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f>COUNT(B4:I4)</f>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>J5</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" cm="1">
+        <f t="array" ref="A16:B17">MINVERSE(A12:B13)</f>
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="B16">
+        <v>-0.16666666666666671</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" cm="1">
+        <f t="array" ref="E16:E17">MMULT(A16:B17,E12:E13)</f>
+        <v>4.6666666666666679</v>
+      </c>
+      <c r="H16" t="str">
+        <f>_xlfn.CONCAT("f(x)=",E16,"x + (",E17,")")</f>
+        <v>f(x)=4,66666666666667x + (-1,91666666666667)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.16666666666666671</v>
+      </c>
+      <c r="B17">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-1.9166666666666714</v>
       </c>
     </row>
   </sheetData>
